--- a/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
+++ b/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">   2421</t>
+    <t xml:space="preserve">   2423</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">St. Antonius, Nieuwegein</t>
   </si>
   <si>
-    <t xml:space="preserve">   39.2 ( 948) </t>
+    <t xml:space="preserve">   39.1 ( 948) </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.0</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">UMC Utrecht</t>
   </si>
   <si>
-    <t xml:space="preserve">   60.8 (1473) </t>
+    <t xml:space="preserve">   60.9 (1475) </t>
   </si>
   <si>
     <t xml:space="preserve">ORyear....freq.</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">    7.5 ( 181) </t>
+    <t xml:space="preserve">    7.5 ( 182) </t>
   </si>
   <si>
     <t xml:space="preserve">X.9</t>
@@ -152,33 +152,36 @@
     <t xml:space="preserve">2011</t>
   </si>
   <si>
+    <t xml:space="preserve">    6.8 ( 164) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.3 ( 176) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.1 ( 149) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">    6.7 ( 163) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.3 ( 176) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.2 ( 149) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">X.14</t>
   </si>
   <si>
@@ -227,7 +230,7 @@
     <t xml:space="preserve">Age..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 69.105 (9.302)</t>
+    <t xml:space="preserve"> 69.103 (9.302)</t>
   </si>
   <si>
     <t xml:space="preserve">Gender....freq.</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">   30.5 ( 738) </t>
+    <t xml:space="preserve">   30.5 ( 739) </t>
   </si>
   <si>
     <t xml:space="preserve">X.19</t>
@@ -245,13 +248,13 @@
     <t xml:space="preserve">male</t>
   </si>
   <si>
-    <t xml:space="preserve">   69.5 (1683) </t>
+    <t xml:space="preserve">   69.5 (1684) </t>
   </si>
   <si>
     <t xml:space="preserve">TC_finalCU..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">184.803 (56.262)</t>
+    <t xml:space="preserve">184.852 (56.275)</t>
   </si>
   <si>
     <t xml:space="preserve">38.0</t>
@@ -260,7 +263,7 @@
     <t xml:space="preserve">LDL_finalCU..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">108.420 (41.744)</t>
+    <t xml:space="preserve">108.484 (41.794)</t>
   </si>
   <si>
     <t xml:space="preserve">45.6</t>
@@ -269,7 +272,7 @@
     <t xml:space="preserve">HDL_finalCU..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 46.435 (17.005)</t>
+    <t xml:space="preserve"> 46.432 (16.999)</t>
   </si>
   <si>
     <t xml:space="preserve">41.7</t>
@@ -278,7 +281,7 @@
     <t xml:space="preserve">TG_finalCU..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">151.216 (91.277)</t>
+    <t xml:space="preserve">151.189 (91.249)</t>
   </si>
   <si>
     <t xml:space="preserve">42.8</t>
@@ -287,13 +290,13 @@
     <t xml:space="preserve">TC_final..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.786 (1.457)</t>
+    <t xml:space="preserve">  4.788 (1.458)</t>
   </si>
   <si>
     <t xml:space="preserve">LDL_final..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">  2.808 (1.081)</t>
+    <t xml:space="preserve">  2.810 (1.082)</t>
   </si>
   <si>
     <t xml:space="preserve">HDL_final..mean..SD..</t>
@@ -305,22 +308,22 @@
     <t xml:space="preserve">TG_final..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.709 (1.031)</t>
+    <t xml:space="preserve">  1.708 (1.031)</t>
   </si>
   <si>
     <t xml:space="preserve">hsCRP_plasma..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19.914 (231.655)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0</t>
+    <t xml:space="preserve"> 19.887 (231.453)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9</t>
   </si>
   <si>
     <t xml:space="preserve">systolic..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">152.419 (25.166)</t>
+    <t xml:space="preserve">152.408 (25.163)</t>
   </si>
   <si>
     <t xml:space="preserve">11.3</t>
@@ -329,13 +332,13 @@
     <t xml:space="preserve">diastoli..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 81.318 (25.188)</t>
+    <t xml:space="preserve"> 81.314 (25.178)</t>
   </si>
   <si>
     <t xml:space="preserve">GFR_MDRD..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 73.121 (21.152)</t>
+    <t xml:space="preserve"> 73.115 (21.145)</t>
   </si>
   <si>
     <t xml:space="preserve"> 5.4</t>
@@ -344,7 +347,7 @@
     <t xml:space="preserve">BMI..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26.488 (3.977)</t>
+    <t xml:space="preserve"> 26.488 (3.976)</t>
   </si>
   <si>
     <t xml:space="preserve"> 5.9</t>
@@ -353,9 +356,6 @@
     <t xml:space="preserve">KDOQI....freq.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">X.20</t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">CKD 2 (Mild)</t>
   </si>
   <si>
-    <t xml:space="preserve">   50.9 (1232) </t>
+    <t xml:space="preserve">   50.9 (1233) </t>
   </si>
   <si>
     <t xml:space="preserve">X.22</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">CKD 3 (Moderate)</t>
   </si>
   <si>
-    <t xml:space="preserve">   22.8 ( 553) </t>
+    <t xml:space="preserve">   22.9 ( 554) </t>
   </si>
   <si>
     <t xml:space="preserve">X.23</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">X.25</t>
   </si>
   <si>
-    <t xml:space="preserve">    5.5 ( 132) </t>
+    <t xml:space="preserve">    5.4 ( 132) </t>
   </si>
   <si>
     <t xml:space="preserve">BMI_WHO....freq.</t>
@@ -425,970 +425,964 @@
     <t xml:space="preserve">Normal</t>
   </si>
   <si>
+    <t xml:space="preserve">   35.1 ( 851) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   43.4 (1052) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.5 ( 352) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.9 ( 144) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmokerStatus....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current smoker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.2 ( 805) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex-smoker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.0 (1163) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never smoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.9 ( 313) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.9 ( 142) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlcoholUse....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.5 ( 835) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   61.5 (1489) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 (  99) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiabetesStatus....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control (no Diabetes Dx/Med)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.2 (1822) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.7 ( 574) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 (  27) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.3 ( 590) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.4 (1755) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 (  78) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.0 ( 726) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   65.6 (1590) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4 ( 107) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.composite....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.6 ( 354) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.2 (2041) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2 (  28) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.drugs....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.4 ( 566) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.3 (1824) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 (  33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.anticoagulants....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   87.3 (2116) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.1 ( 269) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6 (  38) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.2 ( 295) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   86.3 (2092) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5 (  36) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.3 ( 491) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   78.3 (1898) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 (  34) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke_Dx....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No stroke diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   71.5 (1732) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.7 ( 525) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9 ( 166) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sympt....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asymptomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.1 ( 270) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39.7 ( 961) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minor stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.8 ( 407) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9 ( 239) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaurosis fugax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.7 ( 380) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four vessel disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertebrobasilary TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2 (   5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retinal infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 (  53) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5 (  11) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinal infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2 (   6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0 (   1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinal infarction + TIAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular ischemic syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7 (  16) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ischemisch glaucoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclavian steal syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.1 (   2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptoms.5G....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.3 ( 396) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3 ( 105) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7 (  40) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.7 ( 646) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39.9 ( 966) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsymptSympt....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.3 ( 541) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   66.5 (1612) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsymptSympt2G....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   88.9 (2153) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">restenos....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   93.7 (2270) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restenosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9 ( 118) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 (  35) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenose....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5 (  13) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   46.5 (1127) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38.3 ( 928) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% (Occlusion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3 (  31) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6 (  15) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.8 (  68) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.0 (  48) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedHx_CVD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.9 ( 893) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   63.1 (1530) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD_history....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No history CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   66.9 (1620) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.2 ( 756) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.9 (  47) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing/no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.5 (1878) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.5 ( 497) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral.interv....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.2 (1870) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.9 ( 482) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.9 (  71) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP_composite....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No composite endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.6 (1711) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.0 ( 122) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.479 (1.109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macmean0..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.767 (1.183)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smcmean0..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.985 (2.380)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no/minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.0 ( 847) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderate/heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   40.9 ( 992) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.1 ( 584) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.8 ( 602) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   51.3 (1244) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.8 ( 577) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutrophils..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.151 (419.998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast_cells_plaque..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.488 (163.771)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPH.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.8 ( 746) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   45.7 (1108) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.5 ( 569) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vessel_density_averaged..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.317 (6.384)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calc.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   41.6 (1007) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.119</t>
+  </si>
+  <si>
     <t xml:space="preserve">   35.1 ( 850) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   43.4 (1051) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.5 ( 352) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.9 ( 144) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmokerStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current smoker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.2 ( 803) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ex-smoker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.0 (1163) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never smoked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.9 ( 313) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.9 ( 142) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlcoholUse....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.5 ( 835) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   61.5 (1488) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.0 (  98) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiabetesStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control (no Diabetes Dx/Med)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.2 (1820) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.7 ( 574) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.1 (  27) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.3 ( 589) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   72.4 (1754) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2 (  78) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.9 ( 725) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   65.6 (1589) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.4 ( 107) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.6 ( 353) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   84.3 (2040) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.2 (  28) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.drugs....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.47</t>
+    <t xml:space="preserve">X.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collagen.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.8 ( 382) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   60.6 (1469) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.6 ( 572) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fat.bin_10....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.4 ( 542) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   54.3 (1316) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.124</t>
   </si>
   <si>
     <t xml:space="preserve">   23.3 ( 565) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.3 (1823) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.4 (  33) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.anticoagulants....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   87.3 (2114) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.1 ( 269) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.6 (  38) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.2 ( 295) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   86.3 (2090) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.5 (  36) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.3 ( 491) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   78.3 (1896) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.4 (  34) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke_Dx....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No stroke diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   71.5 (1731) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.6 ( 524) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.9 ( 166) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asymptomatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.2 ( 270) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   39.7 ( 961) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minor stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.8 ( 407) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.8 ( 238) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaurosis fugax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.7 ( 379) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four vessel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertebrobasilary TIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2 (   5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2 (  53) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.5 (  11) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2 (   6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0 (   1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction + TIAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular ischemic syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.7 (  16) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ischemisch glaucoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subclavian steal syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.1 (   2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptoms.5G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.3 ( 395) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.3 ( 105) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.7 (  40) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.6 ( 645) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   39.9 ( 966) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsymptSympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular and others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.3 ( 540) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   66.5 (1611) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsymptSympt2G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   88.8 (2151) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenos....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de novo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   93.7 (2268) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.9 ( 118) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.4 (  35) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.5 (  13) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.8 ( 189) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   46.6 (1127) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   38.3 ( 927) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% (Occlusion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.3 (  31) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.6 (  15) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.8 (  68) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.0 (  48) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedHx_CVD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.8 ( 892) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   63.2 (1529) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAD_history....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No history CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   66.8 (1618) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.2 ( 756) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.9 (  47) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAOD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing/no data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   77.5 (1876) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.5 ( 497) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripheral.interv....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   77.2 (1868) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.9 ( 482) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.9 (  71) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP_composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   70.6 (1709) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.4 ( 590) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.0 ( 122) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.479 (1.109)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macmean0..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.768 (1.184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smcmean0..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.985 (2.381)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no/minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.9 ( 846) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate/heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   40.9 ( 991) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.1 ( 584) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.9 ( 602) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   51.3 (1242) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.8 ( 577) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutrophils..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.151 (419.998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells_plaque..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.488 (163.771)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPH.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.7 ( 744) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   45.8 (1108) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.5 ( 569) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vessel_density_averaged..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.318 (6.388)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calc.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   41.6 (1006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.1 ( 849) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.4 ( 566) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collagen.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.8 ( 382) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   60.6 (1467) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.6 ( 572) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fat.bin_10....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.4 ( 542) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt;10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54.3 (1314) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.124</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fat.bin_40....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;40%</t>
   </si>
   <si>
-    <t xml:space="preserve">   56.2 (1360) </t>
+    <t xml:space="preserve">   56.2 (1362) </t>
   </si>
   <si>
     <t xml:space="preserve">X.125</t>
@@ -1421,7 +1415,7 @@
     <t xml:space="preserve">fibroatheromatous</t>
   </si>
   <si>
-    <t xml:space="preserve">   27.8 ( 672) </t>
+    <t xml:space="preserve">   27.8 ( 674) </t>
   </si>
   <si>
     <t xml:space="preserve">X.128</t>
@@ -1457,7 +1451,7 @@
     <t xml:space="preserve">IL6R_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.212 (0.251)</t>
+    <t xml:space="preserve">  0.211 (0.251)</t>
   </si>
   <si>
     <t xml:space="preserve">52.4</t>
@@ -1475,10 +1469,19 @@
     <t xml:space="preserve">MCP1_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.612 (0.905)</t>
+    <t xml:space="preserve">  0.612 (0.904)</t>
   </si>
   <si>
     <t xml:space="preserve">50.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600.444 (858.416)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2059,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -2064,13 +2067,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -2078,13 +2081,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -2092,13 +2095,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -2106,13 +2109,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -2120,13 +2123,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -2134,13 +2137,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2148,13 +2151,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2162,13 +2165,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -2176,189 +2179,189 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -2367,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -2463,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2548,7 @@
         <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
@@ -3610,7 +3613,7 @@
         <v>331</v>
       </c>
       <c r="C131" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
@@ -3618,13 +3621,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" t="s">
         <v>333</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>334</v>
-      </c>
-      <c r="C132" t="s">
-        <v>335</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
@@ -3632,13 +3635,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" t="s">
         <v>336</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>337</v>
-      </c>
-      <c r="C133" t="s">
-        <v>338</v>
       </c>
       <c r="D133" t="s">
         <v>6</v>
@@ -3646,13 +3649,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>338</v>
+      </c>
+      <c r="B134" t="s">
         <v>339</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>340</v>
-      </c>
-      <c r="C134" t="s">
-        <v>341</v>
       </c>
       <c r="D134" t="s">
         <v>6</v>
@@ -3660,10 +3663,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>341</v>
+      </c>
+      <c r="B135" t="s">
         <v>342</v>
-      </c>
-      <c r="B135" t="s">
-        <v>343</v>
       </c>
       <c r="C135" t="s">
         <v>277</v>
@@ -3674,13 +3677,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>343</v>
+      </c>
+      <c r="B136" t="s">
         <v>344</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>345</v>
-      </c>
-      <c r="C136" t="s">
-        <v>346</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
@@ -3688,13 +3691,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137" t="s">
         <v>347</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>348</v>
-      </c>
-      <c r="C137" t="s">
-        <v>349</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -3702,10 +3705,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" t="s">
         <v>350</v>
-      </c>
-      <c r="B138" t="s">
-        <v>351</v>
       </c>
       <c r="C138" t="s">
         <v>287</v>
@@ -3716,11 +3719,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139"/>
       <c r="C139" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
@@ -3728,13 +3731,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B140" t="s">
         <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -3742,13 +3745,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
         <v>181</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -3765,18 +3768,18 @@
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" t="s">
         <v>360</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>361</v>
-      </c>
-      <c r="C143" t="s">
-        <v>362</v>
       </c>
       <c r="D143" t="s">
         <v>6</v>
@@ -3784,13 +3787,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" t="s">
         <v>363</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>364</v>
-      </c>
-      <c r="C144" t="s">
-        <v>365</v>
       </c>
       <c r="D144" t="s">
         <v>6</v>
@@ -3798,11 +3801,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B145"/>
       <c r="C145" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D145" t="s">
         <v>6</v>
@@ -3810,10 +3813,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" t="s">
         <v>368</v>
-      </c>
-      <c r="B146" t="s">
-        <v>369</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -3824,13 +3827,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B147" t="s">
         <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D147" t="s">
         <v>6</v>
@@ -3838,13 +3841,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B148" t="s">
         <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
@@ -3852,11 +3855,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B149"/>
       <c r="C149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
@@ -3864,27 +3867,27 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B150" t="s">
         <v>178</v>
       </c>
       <c r="C150" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" t="s">
         <v>376</v>
-      </c>
-      <c r="D150" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B151" t="s">
         <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
@@ -3892,11 +3895,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
@@ -3904,27 +3907,27 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" t="s">
         <v>382</v>
-      </c>
-      <c r="B153" t="s">
-        <v>383</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>384</v>
+      </c>
+      <c r="B154" t="s">
         <v>385</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>386</v>
-      </c>
-      <c r="C154" t="s">
-        <v>387</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3932,13 +3935,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>387</v>
+      </c>
+      <c r="B155" t="s">
         <v>388</v>
       </c>
-      <c r="B155" t="s">
-        <v>389</v>
-      </c>
       <c r="C155" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
@@ -3946,11 +3949,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B156"/>
       <c r="C156" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
@@ -3958,69 +3961,69 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D157" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D158" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D159" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>400</v>
+      </c>
+      <c r="B160" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" t="s">
         <v>402</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>403</v>
-      </c>
-      <c r="C160" t="s">
-        <v>404</v>
-      </c>
-      <c r="D160" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>404</v>
+      </c>
+      <c r="B161" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" t="s">
         <v>406</v>
-      </c>
-      <c r="B161" t="s">
-        <v>407</v>
-      </c>
-      <c r="C161" t="s">
-        <v>408</v>
       </c>
       <c r="D161" t="s">
         <v>6</v>
@@ -4028,11 +4031,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B162"/>
       <c r="C162" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D162" t="s">
         <v>6</v>
@@ -4040,27 +4043,27 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" t="s">
+        <v>401</v>
+      </c>
+      <c r="C163" t="s">
+        <v>410</v>
+      </c>
+      <c r="D163" t="s">
         <v>411</v>
-      </c>
-      <c r="B163" t="s">
-        <v>403</v>
-      </c>
-      <c r="C163" t="s">
-        <v>412</v>
-      </c>
-      <c r="D163" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C164" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -4068,11 +4071,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B165"/>
       <c r="C165" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D165" t="s">
         <v>6</v>
@@ -4080,55 +4083,55 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B166" t="s">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D166" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D167" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B168" t="s">
         <v>178</v>
       </c>
       <c r="C168" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D168" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B169" t="s">
         <v>181</v>
       </c>
       <c r="C169" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
@@ -4136,11 +4139,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
@@ -4148,41 +4151,41 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B171" t="s">
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D171" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>432</v>
+      </c>
+      <c r="B172" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" t="s">
+        <v>433</v>
+      </c>
+      <c r="D172" t="s">
         <v>434</v>
-      </c>
-      <c r="B172" t="s">
-        <v>403</v>
-      </c>
-      <c r="C172" t="s">
-        <v>435</v>
-      </c>
-      <c r="D172" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C173" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D173" t="s">
         <v>6</v>
@@ -4190,11 +4193,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="s">
-        <v>440</v>
+        <v>204</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
@@ -4202,27 +4205,27 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B175" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C176" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D176" t="s">
         <v>6</v>
@@ -4230,11 +4233,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B177"/>
       <c r="C177" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D177" t="s">
         <v>6</v>
@@ -4242,27 +4245,27 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>445</v>
+      </c>
+      <c r="B178" t="s">
+        <v>446</v>
+      </c>
+      <c r="C178" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" t="s">
         <v>448</v>
-      </c>
-      <c r="B178" t="s">
-        <v>449</v>
-      </c>
-      <c r="C178" t="s">
-        <v>450</v>
-      </c>
-      <c r="D178" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B179" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C179" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D179" t="s">
         <v>6</v>
@@ -4270,11 +4273,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B180"/>
       <c r="C180" t="s">
-        <v>204</v>
+        <v>453</v>
       </c>
       <c r="D180" t="s">
         <v>6</v>
@@ -4282,27 +4285,27 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>454</v>
+      </c>
+      <c r="B181" t="s">
+        <v>455</v>
+      </c>
+      <c r="C181" t="s">
         <v>456</v>
       </c>
-      <c r="B181" t="s">
-        <v>457</v>
-      </c>
-      <c r="C181" t="s">
-        <v>458</v>
-      </c>
       <c r="D181" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>457</v>
+      </c>
+      <c r="B182" t="s">
+        <v>458</v>
+      </c>
+      <c r="C182" t="s">
         <v>459</v>
-      </c>
-      <c r="B182" t="s">
-        <v>460</v>
-      </c>
-      <c r="C182" t="s">
-        <v>461</v>
       </c>
       <c r="D182" t="s">
         <v>6</v>
@@ -4310,11 +4313,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B183"/>
       <c r="C183" t="s">
-        <v>204</v>
+        <v>453</v>
       </c>
       <c r="D183" t="s">
         <v>6</v>
@@ -4322,27 +4325,27 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>461</v>
+      </c>
+      <c r="B184" t="s">
+        <v>462</v>
+      </c>
+      <c r="C184" t="s">
         <v>463</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>464</v>
-      </c>
-      <c r="C184" t="s">
-        <v>465</v>
-      </c>
-      <c r="D184" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>465</v>
+      </c>
+      <c r="B185" t="s">
+        <v>466</v>
+      </c>
+      <c r="C185" t="s">
         <v>467</v>
-      </c>
-      <c r="B185" t="s">
-        <v>468</v>
-      </c>
-      <c r="C185" t="s">
-        <v>469</v>
       </c>
       <c r="D185" t="s">
         <v>6</v>
@@ -4350,13 +4353,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>468</v>
+      </c>
+      <c r="B186" t="s">
+        <v>469</v>
+      </c>
+      <c r="C186" t="s">
         <v>470</v>
-      </c>
-      <c r="B186" t="s">
-        <v>471</v>
-      </c>
-      <c r="C186" t="s">
-        <v>472</v>
       </c>
       <c r="D186" t="s">
         <v>6</v>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="s">
@@ -4376,72 +4379,86 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D188" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D189" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B190" t="s">
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D190" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D191" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
       <c r="C192" t="s">
+        <v>485</v>
+      </c>
+      <c r="D192" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
         <v>487</v>
       </c>
-      <c r="D192" t="s">
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
         <v>488</v>
+      </c>
+      <c r="D193" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
+++ b/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swvanderlaan/PLINK/analyses/lookups/AE_20190912_010_MDICHGANS_SWVDLAAN_IL6_MCP1/IL6MCP1/BASELINE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040F747A-D7AE-2B4D-BA46-EBD1F463B02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wholeAEDB_Baseline" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="wholeAEDB_Baseline" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="490">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t xml:space="preserve">   2423</t>
@@ -35,10 +43,10 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Antonius, Nieuwegein</t>
+    <t>Hospital....freq.</t>
+  </si>
+  <si>
+    <t>St. Antonius, Nieuwegein</t>
   </si>
   <si>
     <t xml:space="preserve">   39.1 ( 948) </t>
@@ -47,295 +55,295 @@
     <t xml:space="preserve"> 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMC Utrecht</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>UMC Utrecht</t>
   </si>
   <si>
     <t xml:space="preserve">   60.9 (1475) </t>
   </si>
   <si>
-    <t xml:space="preserve">ORyear....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available/missing</t>
+    <t>ORyear....freq.</t>
+  </si>
+  <si>
+    <t>No data available/missing</t>
   </si>
   <si>
     <t xml:space="preserve">    0.0 (   0) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
+    <t>X.1</t>
+  </si>
+  <si>
+    <t>2002</t>
   </si>
   <si>
     <t xml:space="preserve">    3.3 (  81) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
+    <t>X.2</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
   <si>
     <t xml:space="preserve">    6.5 ( 157) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
+    <t>X.3</t>
+  </si>
+  <si>
+    <t>2004</t>
   </si>
   <si>
     <t xml:space="preserve">    7.8 ( 190) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
+    <t>X.4</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
   <si>
     <t xml:space="preserve">    7.6 ( 185) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
+    <t>X.5</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t xml:space="preserve">    7.6 ( 183) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
+    <t>X.6</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t xml:space="preserve">    6.3 ( 152) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
+    <t>X.7</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t xml:space="preserve">    5.7 ( 138) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
+    <t>X.8</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t xml:space="preserve">    7.5 ( 182) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
+    <t>X.9</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
   <si>
     <t xml:space="preserve">    6.6 ( 159) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
+    <t>X.10</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t xml:space="preserve">    6.8 ( 164) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
+    <t>X.11</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t xml:space="preserve">    7.3 ( 176) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
+    <t>X.12</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
   <si>
     <t xml:space="preserve">    6.1 ( 149) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
+    <t>X.13</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t xml:space="preserve">    6.7 ( 163) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
+    <t>X.14</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t xml:space="preserve">    3.1 (  76) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
+    <t>X.15</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
   <si>
     <t xml:space="preserve">    3.5 (  85) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
+    <t>X.16</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
   <si>
     <t xml:space="preserve">    2.7 (  65) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
+    <t>X.17</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t xml:space="preserve">    2.7 (  66) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
+    <t>X.18</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t xml:space="preserve">    2.1 (  52) </t>
   </si>
   <si>
-    <t xml:space="preserve">Age..mean..SD..</t>
+    <t>Age..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 69.103 (9.302)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
+    <t>Gender....freq.</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t xml:space="preserve">   30.5 ( 739) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
+    <t>X.19</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
   <si>
     <t xml:space="preserve">   69.5 (1684) </t>
   </si>
   <si>
-    <t xml:space="preserve">TC_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.852 (56.275)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.484 (41.794)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL_finalCU..mean..SD..</t>
+    <t>TC_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>184.852 (56.275)</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>LDL_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>108.484 (41.794)</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>HDL_finalCU..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 46.432 (16.999)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.189 (91.249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_final..mean..SD..</t>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>TG_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>151.189 (91.249)</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>TC_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  4.788 (1.458)</t>
   </si>
   <si>
-    <t xml:space="preserve">LDL_final..mean..SD..</t>
+    <t>LDL_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  2.810 (1.082)</t>
   </si>
   <si>
-    <t xml:space="preserve">HDL_final..mean..SD..</t>
+    <t>HDL_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.203 (0.440)</t>
   </si>
   <si>
-    <t xml:space="preserve">TG_final..mean..SD..</t>
+    <t>TG_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.708 (1.031)</t>
   </si>
   <si>
-    <t xml:space="preserve">hsCRP_plasma..mean..SD..</t>
+    <t>hsCRP_plasma..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 19.887 (231.453)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systolic..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.408 (25.163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diastoli..mean..SD..</t>
+    <t>52.9</t>
+  </si>
+  <si>
+    <t>systolic..mean..SD..</t>
+  </si>
+  <si>
+    <t>152.408 (25.163)</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>diastoli..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 81.314 (25.178)</t>
   </si>
   <si>
-    <t xml:space="preserve">GFR_MDRD..mean..SD..</t>
+    <t>GFR_MDRD..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 73.115 (21.145)</t>
@@ -344,7 +352,7 @@
     <t xml:space="preserve"> 5.4</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI..mean..SD..</t>
+    <t>BMI..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 26.488 (3.976)</t>
@@ -353,142 +361,142 @@
     <t xml:space="preserve"> 5.9</t>
   </si>
   <si>
-    <t xml:space="preserve">KDOQI....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal kidney function</t>
+    <t>KDOQI....freq.</t>
+  </si>
+  <si>
+    <t>X.20</t>
+  </si>
+  <si>
+    <t>Normal kidney function</t>
   </si>
   <si>
     <t xml:space="preserve">   19.1 ( 462) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 2 (Mild)</t>
+    <t>X.21</t>
+  </si>
+  <si>
+    <t>CKD 2 (Mild)</t>
   </si>
   <si>
     <t xml:space="preserve">   50.9 (1233) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 3 (Moderate)</t>
+    <t>X.22</t>
+  </si>
+  <si>
+    <t>CKD 3 (Moderate)</t>
   </si>
   <si>
     <t xml:space="preserve">   22.9 ( 554) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 4 (Severe)</t>
+    <t>X.23</t>
+  </si>
+  <si>
+    <t>CKD 4 (Severe)</t>
   </si>
   <si>
     <t xml:space="preserve">    1.3 (  32) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 5 (Failure)</t>
+    <t>X.24</t>
+  </si>
+  <si>
+    <t>CKD 5 (Failure)</t>
   </si>
   <si>
     <t xml:space="preserve">    0.4 (  10) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.25</t>
+    <t>X.25</t>
   </si>
   <si>
     <t xml:space="preserve">    5.4 ( 132) </t>
   </si>
   <si>
-    <t xml:space="preserve">BMI_WHO....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underweight</t>
+    <t>BMI_WHO....freq.</t>
+  </si>
+  <si>
+    <t>X.26</t>
+  </si>
+  <si>
+    <t>Underweight</t>
   </si>
   <si>
     <t xml:space="preserve">    1.0 (  24) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
+    <t>X.27</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t xml:space="preserve">   35.1 ( 851) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overweight</t>
+    <t>X.28</t>
+  </si>
+  <si>
+    <t>Overweight</t>
   </si>
   <si>
     <t xml:space="preserve">   43.4 (1052) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obese</t>
+    <t>X.29</t>
+  </si>
+  <si>
+    <t>Obese</t>
   </si>
   <si>
     <t xml:space="preserve">   14.5 ( 352) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.30</t>
+    <t>X.30</t>
   </si>
   <si>
     <t xml:space="preserve">    5.9 ( 144) </t>
   </si>
   <si>
-    <t xml:space="preserve">SmokerStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current smoker</t>
+    <t>SmokerStatus....freq.</t>
+  </si>
+  <si>
+    <t>Current smoker</t>
   </si>
   <si>
     <t xml:space="preserve">   33.2 ( 805) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ex-smoker</t>
+    <t>X.31</t>
+  </si>
+  <si>
+    <t>Ex-smoker</t>
   </si>
   <si>
     <t xml:space="preserve">   48.0 (1163) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never smoked</t>
+    <t>X.32</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
   </si>
   <si>
     <t xml:space="preserve">   12.9 ( 313) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.33</t>
+    <t>X.33</t>
   </si>
   <si>
     <t xml:space="preserve">    5.9 ( 142) </t>
   </si>
   <si>
-    <t xml:space="preserve">AlcoholUse....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>AlcoholUse....freq.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">   34.5 ( 835) </t>
@@ -497,25 +505,25 @@
     <t xml:space="preserve"> 4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">X.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
+    <t>X.34</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">   61.5 (1489) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.35</t>
+    <t>X.35</t>
   </si>
   <si>
     <t xml:space="preserve">    4.1 (  99) </t>
   </si>
   <si>
-    <t xml:space="preserve">DiabetesStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control (no Diabetes Dx/Med)</t>
+    <t>DiabetesStatus....freq.</t>
+  </si>
+  <si>
+    <t>Control (no Diabetes Dx/Med)</t>
   </si>
   <si>
     <t xml:space="preserve">   75.2 (1822) </t>
@@ -524,619 +532,619 @@
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">X.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
+    <t>X.36</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">   23.7 ( 574) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.37</t>
+    <t>X.37</t>
   </si>
   <si>
     <t xml:space="preserve">    1.1 (  27) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
+    <t>Hypertension.selfreport....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">X.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
+    <t>X.38</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">   24.3 ( 590) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
+    <t>X.39</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t xml:space="preserve">   72.4 (1755) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.40</t>
+    <t>X.40</t>
   </si>
   <si>
     <t xml:space="preserve">    3.2 (  78) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
+    <t>Hypertension.selfreportdrug....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">X.41</t>
+    <t>X.41</t>
   </si>
   <si>
     <t xml:space="preserve">   30.0 ( 726) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.42</t>
+    <t>X.42</t>
   </si>
   <si>
     <t xml:space="preserve">   65.6 (1590) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.43</t>
+    <t>X.43</t>
   </si>
   <si>
     <t xml:space="preserve">    4.4 ( 107) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.composite....freq.</t>
+    <t>Hypertension.composite....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">X.44</t>
+    <t>X.44</t>
   </si>
   <si>
     <t xml:space="preserve">   14.6 ( 354) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.45</t>
+    <t>X.45</t>
   </si>
   <si>
     <t xml:space="preserve">   84.2 (2041) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.46</t>
+    <t>X.46</t>
   </si>
   <si>
     <t xml:space="preserve">    1.2 (  28) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.drugs....freq.</t>
+    <t>Hypertension.drugs....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">X.47</t>
+    <t>X.47</t>
   </si>
   <si>
     <t xml:space="preserve">   23.4 ( 566) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.48</t>
+    <t>X.48</t>
   </si>
   <si>
     <t xml:space="preserve">   75.3 (1824) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.49</t>
+    <t>X.49</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  33) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.anticoagulants....freq.</t>
+    <t>Med.anticoagulants....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">X.50</t>
+    <t>X.50</t>
   </si>
   <si>
     <t xml:space="preserve">   87.3 (2116) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.51</t>
+    <t>X.51</t>
   </si>
   <si>
     <t xml:space="preserve">   11.1 ( 269) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.52</t>
+    <t>X.52</t>
   </si>
   <si>
     <t xml:space="preserve">    1.6 (  38) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
+    <t>Med.all.antiplatelet....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">X.53</t>
+    <t>X.53</t>
   </si>
   <si>
     <t xml:space="preserve">   12.2 ( 295) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.54</t>
+    <t>X.54</t>
   </si>
   <si>
     <t xml:space="preserve">   86.3 (2092) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.55</t>
+    <t>X.55</t>
   </si>
   <si>
     <t xml:space="preserve">    1.5 (  36) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.56</t>
+    <t>Med.Statin.LLD....freq.</t>
+  </si>
+  <si>
+    <t>X.56</t>
   </si>
   <si>
     <t xml:space="preserve">   20.3 ( 491) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.57</t>
+    <t>X.57</t>
   </si>
   <si>
     <t xml:space="preserve">   78.3 (1898) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.58</t>
+    <t>X.58</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  34) </t>
   </si>
   <si>
-    <t xml:space="preserve">Stroke_Dx....freq.</t>
+    <t>Stroke_Dx....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 6.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No stroke diagnosed</t>
+    <t>X.59</t>
+  </si>
+  <si>
+    <t>No stroke diagnosed</t>
   </si>
   <si>
     <t xml:space="preserve">   71.5 (1732) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke diagnosed</t>
+    <t>X.60</t>
+  </si>
+  <si>
+    <t>Stroke diagnosed</t>
   </si>
   <si>
     <t xml:space="preserve">   21.7 ( 525) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.61</t>
+    <t>X.61</t>
   </si>
   <si>
     <t xml:space="preserve">    6.9 ( 166) </t>
   </si>
   <si>
-    <t xml:space="preserve">sympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asymptomatic</t>
+    <t>sympt....freq.</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>X.62</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
   </si>
   <si>
     <t xml:space="preserve">   11.1 ( 270) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIA</t>
+    <t>X.63</t>
+  </si>
+  <si>
+    <t>TIA</t>
   </si>
   <si>
     <t xml:space="preserve">   39.7 ( 961) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minor stroke</t>
+    <t>X.64</t>
+  </si>
+  <si>
+    <t>minor stroke</t>
   </si>
   <si>
     <t xml:space="preserve">   16.8 ( 407) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major stroke</t>
+    <t>X.65</t>
+  </si>
+  <si>
+    <t>Major stroke</t>
   </si>
   <si>
     <t xml:space="preserve">    9.9 ( 239) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaurosis fugax</t>
+    <t>X.66</t>
+  </si>
+  <si>
+    <t>Amaurosis fugax</t>
   </si>
   <si>
     <t xml:space="preserve">   15.7 ( 380) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four vessel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertebrobasilary TIA</t>
+    <t>X.67</t>
+  </si>
+  <si>
+    <t>Four vessel disease</t>
+  </si>
+  <si>
+    <t>X.68</t>
+  </si>
+  <si>
+    <t>Vertebrobasilary TIA</t>
   </si>
   <si>
     <t xml:space="preserve">    0.2 (   5) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
+    <t>X.69</t>
+  </si>
+  <si>
+    <t>Retinal infarction</t>
+  </si>
+  <si>
+    <t>X.70</t>
+  </si>
+  <si>
+    <t>Symptomatic, but aspecific symtoms</t>
   </si>
   <si>
     <t xml:space="preserve">    2.2 (  53) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
+    <t>X.71</t>
+  </si>
+  <si>
+    <t>Contralateral symptomatic occlusion</t>
   </si>
   <si>
     <t xml:space="preserve">    0.5 (  11) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction</t>
+    <t>X.72</t>
+  </si>
+  <si>
+    <t>retinal infarction</t>
   </si>
   <si>
     <t xml:space="preserve">    0.2 (   6) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
+    <t>X.73</t>
+  </si>
+  <si>
+    <t>armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
   </si>
   <si>
     <t xml:space="preserve">    0.0 (   1) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction + TIAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular ischemic syndrome</t>
+    <t>X.74</t>
+  </si>
+  <si>
+    <t>retinal infarction + TIAs</t>
+  </si>
+  <si>
+    <t>X.75</t>
+  </si>
+  <si>
+    <t>Ocular ischemic syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">    0.7 (  16) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ischemisch glaucoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subclavian steal syndrome</t>
+    <t>X.76</t>
+  </si>
+  <si>
+    <t>ischemisch glaucoom</t>
+  </si>
+  <si>
+    <t>X.77</t>
+  </si>
+  <si>
+    <t>subclavian steal syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">    0.1 (   2) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptoms.5G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular</t>
+    <t>X.78</t>
+  </si>
+  <si>
+    <t>TGA</t>
+  </si>
+  <si>
+    <t>Symptoms.5G....freq.</t>
+  </si>
+  <si>
+    <t>X.79</t>
+  </si>
+  <si>
+    <t>Ocular</t>
   </si>
   <si>
     <t xml:space="preserve">   16.3 ( 396) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
+    <t>X.80</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">    4.3 ( 105) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.81</t>
+    <t>X.81</t>
   </si>
   <si>
     <t xml:space="preserve">    1.7 (  40) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
+    <t>X.82</t>
+  </si>
+  <si>
+    <t>Stroke</t>
   </si>
   <si>
     <t xml:space="preserve">   26.7 ( 646) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.83</t>
+    <t>X.83</t>
   </si>
   <si>
     <t xml:space="preserve">   39.9 ( 966) </t>
   </si>
   <si>
-    <t xml:space="preserve">AsymptSympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular and others</t>
+    <t>AsymptSympt....freq.</t>
+  </si>
+  <si>
+    <t>X.84</t>
+  </si>
+  <si>
+    <t>Ocular and others</t>
   </si>
   <si>
     <t xml:space="preserve">   22.3 ( 541) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic</t>
+    <t>X.85</t>
+  </si>
+  <si>
+    <t>Symptomatic</t>
   </si>
   <si>
     <t xml:space="preserve">   66.5 (1612) </t>
   </si>
   <si>
-    <t xml:space="preserve">AsymptSympt2G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.86</t>
+    <t>AsymptSympt2G....freq.</t>
+  </si>
+  <si>
+    <t>X.86</t>
   </si>
   <si>
     <t xml:space="preserve">   88.9 (2153) </t>
   </si>
   <si>
-    <t xml:space="preserve">restenos....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de novo</t>
+    <t>restenos....freq.</t>
+  </si>
+  <si>
+    <t>X.87</t>
+  </si>
+  <si>
+    <t>de novo</t>
   </si>
   <si>
     <t xml:space="preserve">   93.7 (2270) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenosis</t>
+    <t>X.88</t>
+  </si>
+  <si>
+    <t>restenosis</t>
   </si>
   <si>
     <t xml:space="preserve">    4.9 ( 118) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.90</t>
+    <t>X.89</t>
+  </si>
+  <si>
+    <t>stenose bij angioseal na PTCA</t>
+  </si>
+  <si>
+    <t>X.90</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  35) </t>
   </si>
   <si>
-    <t xml:space="preserve">stenose....freq.</t>
+    <t>stenose....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-49%</t>
+    <t>X.91</t>
+  </si>
+  <si>
+    <t>0-49%</t>
   </si>
   <si>
     <t xml:space="preserve">    0.5 (  13) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-90%</t>
+    <t>X.92</t>
+  </si>
+  <si>
+    <t>50-70%</t>
+  </si>
+  <si>
+    <t>X.93</t>
+  </si>
+  <si>
+    <t>70-90%</t>
   </si>
   <si>
     <t xml:space="preserve">   46.5 (1127) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-99%</t>
+    <t>X.94</t>
+  </si>
+  <si>
+    <t>90-99%</t>
   </si>
   <si>
     <t xml:space="preserve">   38.3 ( 928) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% (Occlusion)</t>
+    <t>X.95</t>
+  </si>
+  <si>
+    <t>100% (Occlusion)</t>
   </si>
   <si>
     <t xml:space="preserve">    1.3 (  31) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-99%</t>
+    <t>X.96</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>X.97</t>
+  </si>
+  <si>
+    <t>50-99%</t>
   </si>
   <si>
     <t xml:space="preserve">    0.6 (  15) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-99%</t>
+    <t>X.98</t>
+  </si>
+  <si>
+    <t>70-99%</t>
   </si>
   <si>
     <t xml:space="preserve">    2.8 (  68) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.100</t>
+    <t>X.99</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>X.100</t>
   </si>
   <si>
     <t xml:space="preserve">    2.0 (  48) </t>
   </si>
   <si>
-    <t xml:space="preserve">MedHx_CVD....freq.</t>
+    <t>MedHx_CVD....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   36.9 ( 893) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.101</t>
+    <t>X.101</t>
   </si>
   <si>
     <t xml:space="preserve">   63.1 (1530) </t>
   </si>
   <si>
-    <t xml:space="preserve">CAD_history....freq.</t>
+    <t>CAD_history....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No history CAD</t>
+    <t>X.102</t>
+  </si>
+  <si>
+    <t>No history CAD</t>
   </si>
   <si>
     <t xml:space="preserve">   66.9 (1620) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History CAD</t>
+    <t>X.103</t>
+  </si>
+  <si>
+    <t>History CAD</t>
   </si>
   <si>
     <t xml:space="preserve">   31.2 ( 756) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.104</t>
+    <t>X.104</t>
   </si>
   <si>
     <t xml:space="preserve">    1.9 (  47) </t>
   </si>
   <si>
-    <t xml:space="preserve">PAOD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing/no data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.105</t>
+    <t>PAOD....freq.</t>
+  </si>
+  <si>
+    <t>missing/no data</t>
+  </si>
+  <si>
+    <t>X.105</t>
   </si>
   <si>
     <t xml:space="preserve">   77.5 (1878) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.106</t>
+    <t>X.106</t>
   </si>
   <si>
     <t xml:space="preserve">   20.5 ( 497) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripheral.interv....freq.</t>
+    <t>X.107</t>
+  </si>
+  <si>
+    <t>Peripheral.interv....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   77.2 (1870) </t>
@@ -1145,49 +1153,49 @@
     <t xml:space="preserve"> 2.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.108</t>
+    <t>X.108</t>
   </si>
   <si>
     <t xml:space="preserve">   19.9 ( 482) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.109</t>
+    <t>X.109</t>
   </si>
   <si>
     <t xml:space="preserve">    2.9 (  71) </t>
   </si>
   <si>
-    <t xml:space="preserve">EP_composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available.</t>
+    <t>EP_composite....freq.</t>
+  </si>
+  <si>
+    <t>No data available.</t>
   </si>
   <si>
     <t xml:space="preserve"> 5.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No composite endpoints</t>
+    <t>X.110</t>
+  </si>
+  <si>
+    <t>No composite endpoints</t>
   </si>
   <si>
     <t xml:space="preserve">   70.6 (1711) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.112</t>
+    <t>X.111</t>
+  </si>
+  <si>
+    <t>Composite endpoints</t>
+  </si>
+  <si>
+    <t>X.112</t>
   </si>
   <si>
     <t xml:space="preserve">    5.0 ( 122) </t>
   </si>
   <si>
-    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
+    <t>EP_composite_time..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  2.479 (1.109)</t>
@@ -1196,160 +1204,160 @@
     <t xml:space="preserve"> 5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">macmean0..mean..SD..</t>
+    <t>macmean0..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.767 (1.183)</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smcmean0..mean..SD..</t>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>smcmean0..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.985 (2.380)</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no/minor</t>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>Macrophages.bin....freq.</t>
+  </si>
+  <si>
+    <t>no/minor</t>
   </si>
   <si>
     <t xml:space="preserve">   35.0 ( 847) </t>
   </si>
   <si>
-    <t xml:space="preserve">24.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate/heavy</t>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>X.113</t>
+  </si>
+  <si>
+    <t>moderate/heavy</t>
   </si>
   <si>
     <t xml:space="preserve">   40.9 ( 992) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.114</t>
+    <t>X.114</t>
   </si>
   <si>
     <t xml:space="preserve">   24.1 ( 584) </t>
   </si>
   <si>
-    <t xml:space="preserve">SMC.bin....freq.</t>
+    <t>SMC.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   24.8 ( 602) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.115</t>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>X.115</t>
   </si>
   <si>
     <t xml:space="preserve">   51.3 (1244) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.116</t>
+    <t>X.116</t>
   </si>
   <si>
     <t xml:space="preserve">   23.8 ( 577) </t>
   </si>
   <si>
-    <t xml:space="preserve">neutrophils..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.151 (419.998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells_plaque..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.488 (163.771)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPH.bin....freq.</t>
+    <t>neutrophils..mean..SD..</t>
+  </si>
+  <si>
+    <t>147.151 (419.998)</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>Mast_cells_plaque..mean..SD..</t>
+  </si>
+  <si>
+    <t>164.488 (163.771)</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>IPH.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   30.8 ( 746) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.117</t>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>X.117</t>
   </si>
   <si>
     <t xml:space="preserve">   45.7 (1108) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.118</t>
+    <t>X.118</t>
   </si>
   <si>
     <t xml:space="preserve">   23.5 ( 569) </t>
   </si>
   <si>
-    <t xml:space="preserve">vessel_density_averaged..mean..SD..</t>
+    <t>vessel_density_averaged..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  8.317 (6.384)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calc.bin....freq.</t>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>Calc.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   41.6 (1007) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.119</t>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>X.119</t>
   </si>
   <si>
     <t xml:space="preserve">   35.1 ( 850) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collagen.bin....freq.</t>
+    <t>X.120</t>
+  </si>
+  <si>
+    <t>Collagen.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   15.8 ( 382) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.121</t>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>X.121</t>
   </si>
   <si>
     <t xml:space="preserve">   60.6 (1469) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.122</t>
+    <t>X.122</t>
   </si>
   <si>
     <t xml:space="preserve">   23.6 ( 572) </t>
   </si>
   <si>
-    <t xml:space="preserve">Fat.bin_10....freq.</t>
+    <t>Fat.bin_10....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;10%</t>
@@ -1358,10 +1366,10 @@
     <t xml:space="preserve">   22.4 ( 542) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.123</t>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>X.123</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt;10%</t>
@@ -1370,126 +1378,125 @@
     <t xml:space="preserve">   54.3 (1316) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.124</t>
+    <t>X.124</t>
   </si>
   <si>
     <t xml:space="preserve">   23.3 ( 565) </t>
   </si>
   <si>
-    <t xml:space="preserve">Fat.bin_40....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;40%</t>
+    <t>Fat.bin_40....freq.</t>
+  </si>
+  <si>
+    <t>&lt;40%</t>
   </si>
   <si>
     <t xml:space="preserve">   56.2 (1362) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;40%</t>
+    <t>X.125</t>
+  </si>
+  <si>
+    <t>&gt;40%</t>
   </si>
   <si>
     <t xml:space="preserve">   20.5 ( 496) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OverallPlaquePhenotype....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atheromatous</t>
+    <t>X.126</t>
+  </si>
+  <si>
+    <t>OverallPlaquePhenotype....freq.</t>
+  </si>
+  <si>
+    <t>atheromatous</t>
   </si>
   <si>
     <t xml:space="preserve">   19.8 ( 480) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibroatheromatous</t>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>X.127</t>
+  </si>
+  <si>
+    <t>fibroatheromatous</t>
   </si>
   <si>
     <t xml:space="preserve">   27.8 ( 674) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibrous</t>
+    <t>X.128</t>
+  </si>
+  <si>
+    <t>fibrous</t>
   </si>
   <si>
     <t xml:space="preserve">   28.7 ( 695) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6..mean..SD..</t>
+    <t>X.129</t>
+  </si>
+  <si>
+    <t>IL6..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 98.812 (292.457)</t>
   </si>
   <si>
-    <t xml:space="preserve">78.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6_pg_ug_2015..mean..SD..</t>
+    <t>78.2</t>
+  </si>
+  <si>
+    <t>IL6_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.138 (0.556)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6R_pg_ug_2015..mean..SD..</t>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>IL6R_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.211 (0.251)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.763 (120.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1_pg_ug_2015..mean..SD..</t>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>MCP1..mean..SD..</t>
+  </si>
+  <si>
+    <t>135.763 (120.028)</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>MCP1_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.612 (0.904)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1_pg_ml_2015..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600.444 (858.416)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5</t>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>MCP1_pg_ml_2015..mean..SD..</t>
+  </si>
+  <si>
+    <t>600.444 (858.416)</t>
+  </si>
+  <si>
+    <t>50.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1525,6 +1532,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1806,14 +1822,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1967,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1995,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2009,7 +2033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2051,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2079,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2093,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2121,7 +2145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2149,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2177,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2205,7 +2229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2219,7 +2243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2233,7 +2257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2247,7 +2271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2275,7 +2299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2289,7 +2313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -2303,7 +2327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -2317,7 +2341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -2331,7 +2355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2359,7 +2383,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2373,7 +2397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -2387,7 +2411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2401,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2415,7 +2439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -2429,7 +2453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -2443,11 +2467,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>129</v>
       </c>
-      <c r="B46"/>
       <c r="C46" t="s">
         <v>130</v>
       </c>
@@ -2455,7 +2478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2469,7 +2492,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -2483,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -2497,7 +2520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -2511,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -2525,11 +2548,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52"/>
       <c r="C52" t="s">
         <v>145</v>
       </c>
@@ -2537,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -2551,7 +2573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -2565,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -2579,11 +2601,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B56"/>
       <c r="C56" t="s">
         <v>156</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2619,11 +2640,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>164</v>
       </c>
-      <c r="B59"/>
       <c r="C59" t="s">
         <v>165</v>
       </c>
@@ -2631,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -2659,11 +2679,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>173</v>
       </c>
-      <c r="B62"/>
       <c r="C62" t="s">
         <v>174</v>
       </c>
@@ -2671,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2685,7 +2704,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -2699,7 +2718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -2713,11 +2732,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>183</v>
       </c>
-      <c r="B66"/>
       <c r="C66" t="s">
         <v>184</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -2739,7 +2757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -2767,11 +2785,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>191</v>
       </c>
-      <c r="B70"/>
       <c r="C70" t="s">
         <v>192</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -2793,7 +2810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>195</v>
       </c>
@@ -2807,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -2821,11 +2838,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
-      <c r="B74"/>
       <c r="C74" t="s">
         <v>200</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -2861,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -2875,11 +2891,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>207</v>
       </c>
-      <c r="B78"/>
       <c r="C78" t="s">
         <v>208</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -2901,7 +2916,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>213</v>
       </c>
@@ -2929,11 +2944,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>215</v>
       </c>
-      <c r="B82"/>
       <c r="C82" t="s">
         <v>216</v>
       </c>
@@ -2941,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -2955,7 +2969,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -2969,7 +2983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -2983,11 +2997,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>223</v>
       </c>
-      <c r="B86"/>
       <c r="C86" t="s">
         <v>224</v>
       </c>
@@ -2995,7 +3008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>225</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -3023,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>228</v>
       </c>
@@ -3037,11 +3050,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>230</v>
       </c>
-      <c r="B90"/>
       <c r="C90" t="s">
         <v>231</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -3091,11 +3103,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>240</v>
       </c>
-      <c r="B94"/>
       <c r="C94" t="s">
         <v>241</v>
       </c>
@@ -3103,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -3131,7 +3142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -3145,7 +3156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -3159,7 +3170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -3187,7 +3198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>259</v>
       </c>
@@ -3201,7 +3212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -3215,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -3229,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>266</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -3257,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>275</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>278</v>
       </c>
@@ -3299,7 +3310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>280</v>
       </c>
@@ -3313,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>283</v>
       </c>
@@ -3327,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>285</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3355,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>290</v>
       </c>
@@ -3369,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>291</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>294</v>
       </c>
@@ -3397,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>297</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>299</v>
       </c>
@@ -3425,7 +3436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>302</v>
       </c>
@@ -3439,7 +3450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>304</v>
       </c>
@@ -3453,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>308</v>
       </c>
@@ -3481,7 +3492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>311</v>
       </c>
@@ -3495,7 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>312</v>
       </c>
@@ -3509,7 +3520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>314</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>315</v>
       </c>
@@ -3537,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>318</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>321</v>
       </c>
@@ -3565,11 +3576,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>323</v>
       </c>
-      <c r="B128"/>
       <c r="C128" t="s">
         <v>324</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>325</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>327</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>330</v>
       </c>
@@ -3619,7 +3629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>335</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>338</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>341</v>
       </c>
@@ -3675,7 +3685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>343</v>
       </c>
@@ -3689,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>346</v>
       </c>
@@ -3703,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>349</v>
       </c>
@@ -3717,11 +3727,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>351</v>
       </c>
-      <c r="B139"/>
       <c r="C139" t="s">
         <v>352</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>353</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>355</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>357</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>359</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>362</v>
       </c>
@@ -3799,11 +3808,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>365</v>
       </c>
-      <c r="B145"/>
       <c r="C145" t="s">
         <v>366</v>
       </c>
@@ -3811,7 +3819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>367</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>369</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>371</v>
       </c>
@@ -3853,11 +3861,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
-      <c r="B149"/>
       <c r="C149" t="s">
         <v>352</v>
       </c>
@@ -3865,7 +3872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>377</v>
       </c>
@@ -3893,11 +3900,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>379</v>
       </c>
-      <c r="B152"/>
       <c r="C152" t="s">
         <v>380</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>381</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>384</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>387</v>
       </c>
@@ -3947,11 +3953,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>389</v>
       </c>
-      <c r="B156"/>
       <c r="C156" t="s">
         <v>390</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>391</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>394</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>400</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>404</v>
       </c>
@@ -4029,11 +4034,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>407</v>
       </c>
-      <c r="B162"/>
       <c r="C162" t="s">
         <v>408</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>409</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>412</v>
       </c>
@@ -4069,11 +4073,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>414</v>
       </c>
-      <c r="B165"/>
       <c r="C165" t="s">
         <v>415</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>419</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>422</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>425</v>
       </c>
@@ -4137,11 +4140,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>427</v>
       </c>
-      <c r="B170"/>
       <c r="C170" t="s">
         <v>428</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>429</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>432</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>435</v>
       </c>
@@ -4191,11 +4193,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>437</v>
       </c>
-      <c r="B174"/>
       <c r="C174" t="s">
         <v>204</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>438</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>441</v>
       </c>
@@ -4231,11 +4232,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>443</v>
       </c>
-      <c r="B177"/>
       <c r="C177" t="s">
         <v>444</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>445</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>449</v>
       </c>
@@ -4271,11 +4271,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>452</v>
       </c>
-      <c r="B180"/>
       <c r="C180" t="s">
         <v>453</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>454</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>457</v>
       </c>
@@ -4311,11 +4310,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>460</v>
       </c>
-      <c r="B183"/>
       <c r="C183" t="s">
         <v>453</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>461</v>
       </c>
@@ -4337,7 +4335,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>465</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>468</v>
       </c>
@@ -4365,11 +4363,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>471</v>
       </c>
-      <c r="B187"/>
       <c r="C187" t="s">
         <v>172</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>472</v>
       </c>
@@ -4391,7 +4388,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>475</v>
       </c>
@@ -4405,7 +4402,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>478</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>481</v>
       </c>
@@ -4433,7 +4430,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>484</v>
       </c>
@@ -4447,7 +4444,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>487</v>
       </c>
@@ -4463,6 +4460,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>